--- a/out/test/Figori_algorithm_11.xlsx
+++ b/out/test/Figori_algorithm_11.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.70409999999999995</v>
+        <v>0.70465</v>
       </c>
       <c r="B1">
-        <v>0.27350000000000002</v>
+        <v>0.45695000000000002</v>
       </c>
       <c r="C1">
-        <v>0.45929999999999999</v>
+        <v>0.71304999999999996</v>
       </c>
       <c r="D1">
-        <v>0.68910000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="E1">
-        <v>0.69159999999999999</v>
+        <v>0.69669999999999999</v>
       </c>
       <c r="F1">
-        <v>0.68400000000000005</v>
+        <v>0.27015</v>
       </c>
       <c r="G1">
-        <v>0.45055000000000001</v>
+        <v>0.69094999999999995</v>
       </c>
       <c r="H1">
-        <v>0.70835000000000004</v>
+        <v>0.45810000000000001</v>
       </c>
       <c r="I1">
-        <v>0.70779999999999998</v>
+        <v>0.27810000000000001</v>
       </c>
       <c r="J1">
-        <v>0.69474999999999998</v>
+        <v>0.27834999999999999</v>
       </c>
       <c r="K1">
-        <v>0.45765</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="L1">
-        <v>0.27205000000000001</v>
+        <v>0.26895000000000002</v>
       </c>
       <c r="M1">
-        <v>0.68589999999999995</v>
+        <v>0.6885</v>
       </c>
       <c r="N1">
-        <v>0.45400000000000001</v>
+        <v>0.68935000000000002</v>
       </c>
       <c r="O1">
+        <v>0.2782</v>
+      </c>
+      <c r="P1">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="Q1">
+        <v>0.69494999999999996</v>
+      </c>
+      <c r="R1">
+        <v>0.70504999999999995</v>
+      </c>
+      <c r="S1">
+        <v>0.70294999999999996</v>
+      </c>
+      <c r="T1">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="U1">
+        <v>0.71065</v>
+      </c>
+      <c r="V1">
+        <v>0.69015000000000004</v>
+      </c>
+      <c r="W1">
+        <v>0.70979999999999999</v>
+      </c>
+      <c r="X1">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="Y1">
+        <v>0.45329999999999998</v>
+      </c>
+      <c r="Z1">
+        <v>0.70494999999999997</v>
+      </c>
+      <c r="AA1">
+        <v>0.7026</v>
+      </c>
+      <c r="AB1">
+        <v>0.68994999999999995</v>
+      </c>
+      <c r="AC1">
+        <v>0.71409999999999996</v>
+      </c>
+      <c r="AD1">
+        <v>0.27694999999999997</v>
+      </c>
+      <c r="AE1">
+        <v>0.69589999999999996</v>
+      </c>
+      <c r="AF1">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="AG1">
+        <v>0.2712</v>
+      </c>
+      <c r="AH1">
+        <v>0.70304999999999995</v>
+      </c>
+      <c r="AI1">
+        <v>0.45545000000000002</v>
+      </c>
+      <c r="AJ1">
+        <v>0.68325000000000002</v>
+      </c>
+      <c r="AK1">
+        <v>0.27065</v>
+      </c>
+      <c r="AL1">
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="AM1">
         <v>0.71020000000000005</v>
       </c>
-      <c r="P1">
-        <v>0.27084999999999998</v>
-      </c>
-      <c r="Q1">
-        <v>0.71040000000000003</v>
-      </c>
-      <c r="R1">
-        <v>0.69215000000000004</v>
-      </c>
-      <c r="S1">
-        <v>0.4577</v>
-      </c>
-      <c r="T1">
-        <v>0.68825000000000003</v>
-      </c>
-      <c r="U1">
-        <v>0.69404999999999994</v>
-      </c>
-      <c r="V1">
-        <v>0.27465000000000001</v>
-      </c>
-      <c r="W1">
-        <v>0.68620000000000003</v>
-      </c>
-      <c r="X1">
-        <v>0.2737</v>
-      </c>
-      <c r="Y1">
-        <v>0.70845000000000002</v>
-      </c>
-      <c r="Z1">
-        <v>0.70925000000000005</v>
-      </c>
-      <c r="AA1">
-        <v>0.27045000000000002</v>
-      </c>
-      <c r="AB1">
-        <v>0.70830000000000004</v>
-      </c>
-      <c r="AC1">
-        <v>0.70635000000000003</v>
-      </c>
-      <c r="AD1">
-        <v>0.27289999999999998</v>
-      </c>
-      <c r="AE1">
-        <v>0.70474999999999999</v>
-      </c>
-      <c r="AF1">
-        <v>0.45839999999999997</v>
-      </c>
-      <c r="AG1">
-        <v>0.27615000000000001</v>
-      </c>
-      <c r="AH1">
-        <v>0.2782</v>
-      </c>
-      <c r="AI1">
-        <v>0.68374999999999997</v>
-      </c>
-      <c r="AJ1">
-        <v>0.70730000000000004</v>
-      </c>
-      <c r="AK1">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="AL1">
-        <v>0.69164999999999999</v>
-      </c>
-      <c r="AM1">
-        <v>0.27915000000000001</v>
-      </c>
       <c r="AN1">
-        <v>0.26745000000000002</v>
+        <v>0.69064999999999999</v>
       </c>
       <c r="AO1">
-        <v>0.26784999999999998</v>
+        <v>0.45665</v>
       </c>
       <c r="AP1">
-        <v>0.68674999999999997</v>
+        <v>0.69330000000000003</v>
       </c>
       <c r="AQ1">
-        <v>0.68579999999999997</v>
+        <v>0.71450000000000002</v>
       </c>
       <c r="AR1">
-        <v>0.68899999999999995</v>
+        <v>0.26774999999999999</v>
       </c>
       <c r="AS1">
-        <v>0.71465000000000001</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="AT1">
-        <v>0.68559999999999999</v>
+        <v>0.70404999999999995</v>
       </c>
       <c r="AU1">
-        <v>0.27165</v>
+        <v>0.45334999999999998</v>
       </c>
       <c r="AV1">
-        <v>0.45629999999999998</v>
+        <v>0.69650000000000001</v>
       </c>
       <c r="AW1">
-        <v>0.68274999999999997</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="AX1">
-        <v>0.70909999999999995</v>
+        <v>0.71074999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.70730000000000004</v>
+        <v>0.69969999999999999</v>
       </c>
       <c r="B2">
-        <v>0.26790000000000003</v>
+        <v>0.43245</v>
       </c>
       <c r="C2">
-        <v>0.43080000000000002</v>
+        <v>0.69310000000000005</v>
       </c>
       <c r="D2">
-        <v>0.67254999999999998</v>
+        <v>0.68930000000000002</v>
       </c>
       <c r="E2">
-        <v>0.72755000000000003</v>
+        <v>0.69215000000000004</v>
       </c>
       <c r="F2">
-        <v>0.94069999999999998</v>
+        <v>0.26384999999999997</v>
       </c>
       <c r="G2">
-        <v>0.43685000000000002</v>
+        <v>0.68210000000000004</v>
       </c>
       <c r="H2">
-        <v>0.69955000000000001</v>
+        <v>0.44474999999999998</v>
       </c>
       <c r="I2">
-        <v>0.69925000000000004</v>
+        <v>0.49135000000000001</v>
       </c>
       <c r="J2">
-        <v>0.67695000000000005</v>
+        <v>0.26374999999999998</v>
       </c>
       <c r="K2">
-        <v>0.43690000000000001</v>
+        <v>0.43905</v>
       </c>
       <c r="L2">
-        <v>0.26264999999999999</v>
+        <v>0.25955</v>
       </c>
       <c r="M2">
-        <v>0.69520000000000004</v>
+        <v>0.67290000000000005</v>
       </c>
       <c r="N2">
-        <v>0.44280000000000003</v>
+        <v>0.66815000000000002</v>
       </c>
       <c r="O2">
-        <v>0.70704999999999996</v>
+        <v>0.26679999999999998</v>
       </c>
       <c r="P2">
-        <v>0.2737</v>
+        <v>0.28325</v>
       </c>
       <c r="Q2">
-        <v>0.68920000000000003</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="R2">
-        <v>0.91544999999999999</v>
+        <v>0.68105000000000004</v>
       </c>
       <c r="S2">
-        <v>0.44364999999999999</v>
+        <v>0.69974999999999998</v>
       </c>
       <c r="T2">
-        <v>0.66464999999999996</v>
+        <v>0.69730000000000003</v>
       </c>
       <c r="U2">
-        <v>0.6673</v>
+        <v>0.68930000000000002</v>
       </c>
       <c r="V2">
-        <v>0.26605000000000001</v>
+        <v>0.66625000000000001</v>
       </c>
       <c r="W2">
-        <v>0.2621</v>
+        <v>0.70125000000000004</v>
       </c>
       <c r="X2">
-        <v>0.27379999999999999</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="Y2">
-        <v>0.66710000000000003</v>
+        <v>0.44169999999999998</v>
       </c>
       <c r="Z2">
-        <v>0.68510000000000004</v>
+        <v>0.68930000000000002</v>
       </c>
       <c r="AA2">
-        <v>0.26774999999999999</v>
+        <v>0.69694999999999996</v>
       </c>
       <c r="AB2">
-        <v>0.68145</v>
+        <v>0.67884999999999995</v>
       </c>
       <c r="AC2">
-        <v>0.69489999999999996</v>
+        <v>0.92415000000000003</v>
       </c>
       <c r="AD2">
-        <v>0.26400000000000001</v>
+        <v>0.26684999999999998</v>
       </c>
       <c r="AE2">
-        <v>0.69240000000000002</v>
+        <v>0.67535000000000001</v>
       </c>
       <c r="AF2">
-        <v>0.71704999999999997</v>
+        <v>0.44169999999999998</v>
       </c>
       <c r="AG2">
-        <v>0.27195000000000003</v>
+        <v>0.28494999999999998</v>
       </c>
       <c r="AH2">
-        <v>0.27315</v>
+        <v>0.69040000000000001</v>
       </c>
       <c r="AI2">
-        <v>0.69650000000000001</v>
+        <v>0.43919999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.6875</v>
+        <v>0.66359999999999997</v>
       </c>
       <c r="AK2">
-        <v>0.2646</v>
+        <v>0.26329999999999998</v>
       </c>
       <c r="AL2">
-        <v>0.66944999999999999</v>
+        <v>0.26050000000000001</v>
       </c>
       <c r="AM2">
-        <v>0.27224999999999999</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="AN2">
-        <v>0.67115000000000002</v>
+        <v>0.66144999999999998</v>
       </c>
       <c r="AO2">
-        <v>0.26019999999999999</v>
+        <v>0.45014999999999999</v>
       </c>
       <c r="AP2">
-        <v>0.25985000000000003</v>
+        <v>0.66490000000000005</v>
       </c>
       <c r="AQ2">
-        <v>0.68045</v>
+        <v>0.69594999999999996</v>
       </c>
       <c r="AR2">
-        <v>0.66659999999999997</v>
+        <v>0.26929999999999998</v>
       </c>
       <c r="AS2">
-        <v>0.69140000000000001</v>
+        <v>0.69384999999999997</v>
       </c>
       <c r="AT2">
-        <v>0.67784999999999995</v>
+        <v>0.9496</v>
       </c>
       <c r="AU2">
-        <v>0.26145000000000002</v>
+        <v>0.44624999999999998</v>
       </c>
       <c r="AV2">
-        <v>0.43290000000000001</v>
+        <v>0.68654999999999999</v>
       </c>
       <c r="AW2">
-        <v>0.71994999999999998</v>
+        <v>0.45379999999999998</v>
       </c>
       <c r="AX2">
-        <v>0.67635000000000001</v>
+        <v>0.69720000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.68225000000000002</v>
+        <v>0.67374999999999996</v>
       </c>
       <c r="B3">
-        <v>0.51419999999999999</v>
+        <v>0.40855000000000002</v>
       </c>
       <c r="C3">
-        <v>0.41710000000000003</v>
+        <v>0.65639999999999998</v>
       </c>
       <c r="D3">
-        <v>0.93594999999999995</v>
+        <v>0.64715</v>
       </c>
       <c r="E3">
-        <v>0.92279999999999995</v>
+        <v>0.65980000000000005</v>
       </c>
       <c r="F3">
-        <v>0.50819999999999999</v>
+        <v>0.68989999999999996</v>
       </c>
       <c r="G3">
-        <v>0.40075</v>
+        <v>0.63449999999999995</v>
       </c>
       <c r="H3">
-        <v>0.65090000000000003</v>
+        <v>0.40610000000000002</v>
       </c>
       <c r="I3">
-        <v>0.94730000000000003</v>
+        <v>0.84865000000000002</v>
       </c>
       <c r="J3">
-        <v>0.64424999999999999</v>
+        <v>0.24185000000000001</v>
       </c>
       <c r="K3">
-        <v>0.67684999999999995</v>
+        <v>0.68859999999999999</v>
       </c>
       <c r="L3">
-        <v>0.25185000000000002</v>
+        <v>0.28739999999999999</v>
       </c>
       <c r="M3">
-        <v>0.68020000000000003</v>
+        <v>0.70674999999999999</v>
       </c>
       <c r="N3">
-        <v>0.41744999999999999</v>
+        <v>0.94225000000000003</v>
       </c>
       <c r="O3">
-        <v>0.67889999999999995</v>
+        <v>0.27844999999999998</v>
       </c>
       <c r="P3">
-        <v>0.27060000000000001</v>
+        <v>0.30185000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.73829999999999996</v>
+        <v>0.64249999999999996</v>
       </c>
       <c r="R3">
-        <v>0.91679999999999995</v>
+        <v>0.82220000000000004</v>
       </c>
       <c r="S3">
-        <v>0.41804999999999998</v>
+        <v>0.66864999999999997</v>
       </c>
       <c r="T3">
-        <v>0.73045000000000004</v>
+        <v>0.68974999999999997</v>
       </c>
       <c r="U3">
-        <v>0.67605000000000004</v>
+        <v>0.65844999999999998</v>
       </c>
       <c r="V3">
-        <v>0.26565</v>
+        <v>0.65485000000000004</v>
       </c>
       <c r="W3">
-        <v>0.25174999999999997</v>
+        <v>0.66415000000000002</v>
       </c>
       <c r="X3">
-        <v>0.66285000000000005</v>
+        <v>0.60629999999999995</v>
       </c>
       <c r="Y3">
-        <v>0.66674999999999995</v>
+        <v>0.65920000000000001</v>
       </c>
       <c r="Z3">
-        <v>0.67015000000000002</v>
+        <v>0.94679999999999997</v>
       </c>
       <c r="AA3">
-        <v>4.2849999999999999E-2</v>
+        <v>0.65034999999999998</v>
       </c>
       <c r="AB3">
-        <v>0.67254999999999998</v>
+        <v>0.68705000000000005</v>
       </c>
       <c r="AC3">
-        <v>0.92710000000000004</v>
+        <v>0.92654999999999998</v>
       </c>
       <c r="AD3">
-        <v>0.85424999999999995</v>
+        <v>0.24829999999999999</v>
       </c>
       <c r="AE3">
-        <v>0.66444999999999999</v>
+        <v>0.25569999999999998</v>
       </c>
       <c r="AF3">
-        <v>0.93100000000000005</v>
+        <v>0.48875000000000002</v>
       </c>
       <c r="AG3">
-        <v>0.87304999999999999</v>
+        <v>0.26255000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.26324999999999998</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="AI3">
-        <v>0.64944999999999997</v>
+        <v>0.47384999999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.66154999999999997</v>
+        <v>0.70045000000000002</v>
       </c>
       <c r="AK3">
-        <v>0.245</v>
+        <v>0.23845</v>
       </c>
       <c r="AL3">
-        <v>0.63524999999999998</v>
+        <v>0.23780000000000001</v>
       </c>
       <c r="AM3">
-        <v>0.25635000000000002</v>
+        <v>0.92125000000000001</v>
       </c>
       <c r="AN3">
-        <v>0.26150000000000001</v>
+        <v>0.63644999999999996</v>
       </c>
       <c r="AO3">
-        <v>0.2356</v>
+        <v>0.42509999999999998</v>
       </c>
       <c r="AP3">
-        <v>0.23430000000000001</v>
+        <v>0.66969999999999996</v>
       </c>
       <c r="AQ3">
-        <v>0.64905000000000002</v>
+        <v>0.68089999999999995</v>
       </c>
       <c r="AR3">
-        <v>0.68074999999999997</v>
+        <v>0.26745000000000002</v>
       </c>
       <c r="AS3">
-        <v>0.7006</v>
+        <v>0.69950000000000001</v>
       </c>
       <c r="AT3">
-        <v>0.62670000000000003</v>
+        <v>0.94574999999999998</v>
       </c>
       <c r="AU3">
-        <v>0.27860000000000001</v>
+        <v>0.41610000000000003</v>
       </c>
       <c r="AV3">
-        <v>0.38255</v>
+        <v>0.70165</v>
       </c>
       <c r="AW3">
-        <v>0.69794999999999996</v>
+        <v>0.42609999999999998</v>
       </c>
       <c r="AX3">
-        <v>0.26305000000000001</v>
+        <v>0.66795000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.88270000000000004</v>
+        <v>0.65644999999999998</v>
       </c>
       <c r="B4">
-        <v>0.50585000000000002</v>
+        <v>0.50419999999999998</v>
       </c>
       <c r="C4">
-        <v>0.47794999999999999</v>
+        <v>0.57909999999999995</v>
       </c>
       <c r="D4">
-        <v>0.86675000000000002</v>
+        <v>0.67564999999999997</v>
       </c>
       <c r="E4">
-        <v>0.89590000000000003</v>
+        <v>0.61809999999999998</v>
       </c>
       <c r="F4">
-        <v>0.9052</v>
+        <v>0.50295000000000001</v>
       </c>
       <c r="G4">
-        <v>0.37445000000000001</v>
+        <v>0.23694999999999999</v>
       </c>
       <c r="H4">
-        <v>0.59740000000000004</v>
+        <v>0.4728</v>
       </c>
       <c r="I4">
-        <v>0.8831</v>
+        <v>0.80320000000000003</v>
       </c>
       <c r="J4">
-        <v>0.62770000000000004</v>
+        <v>0.25490000000000002</v>
       </c>
       <c r="K4">
-        <v>0.78185000000000004</v>
+        <v>0.70484999999999998</v>
       </c>
       <c r="L4">
-        <v>0.23080000000000001</v>
+        <v>0.28234999999999999</v>
       </c>
       <c r="M4">
-        <v>0.98685</v>
+        <v>0.30885000000000001</v>
       </c>
       <c r="N4">
-        <v>0.47699999999999998</v>
+        <v>0.91354999999999997</v>
       </c>
       <c r="O4">
-        <v>0.90210000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="P4">
-        <v>0.29494999999999999</v>
+        <v>0.30414999999999998</v>
       </c>
       <c r="Q4">
-        <v>0.76185000000000003</v>
+        <v>0.84165000000000001</v>
       </c>
       <c r="R4">
-        <v>0.90275000000000005</v>
+        <v>0.12920000000000001</v>
       </c>
       <c r="S4">
-        <v>0.86575000000000002</v>
+        <v>0.32169999999999999</v>
       </c>
       <c r="T4">
-        <v>0.72529999999999994</v>
+        <v>0.66605000000000003</v>
       </c>
       <c r="U4">
-        <v>0.85775000000000001</v>
+        <v>0.26850000000000002</v>
       </c>
       <c r="V4">
-        <v>0.249</v>
+        <v>0.28649999999999998</v>
       </c>
       <c r="W4">
-        <v>0.2913</v>
+        <v>0.30535000000000001</v>
       </c>
       <c r="X4">
-        <v>0.63075000000000003</v>
+        <v>0.33024999999999999</v>
       </c>
       <c r="Y4">
-        <v>0.33145000000000002</v>
+        <v>0.70089999999999997</v>
       </c>
       <c r="Z4">
-        <v>0.63729999999999998</v>
+        <v>0.52410000000000001</v>
       </c>
       <c r="AA4">
-        <v>5.6099999999999997E-2</v>
+        <v>0.63775000000000004</v>
       </c>
       <c r="AB4">
-        <v>0.61114999999999997</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.92979999999999996</v>
+        <v>0.94315000000000004</v>
       </c>
       <c r="AD4">
-        <v>0.49154999999999999</v>
+        <v>0.51070000000000004</v>
       </c>
       <c r="AE4">
-        <v>0.41470000000000001</v>
+        <v>0.29715000000000003</v>
       </c>
       <c r="AF4">
-        <v>0.90915000000000001</v>
+        <v>0.48654999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.83279999999999998</v>
+        <v>0.52915000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.28060000000000002</v>
+        <v>0.67459999999999998</v>
       </c>
       <c r="AI4">
-        <v>0.26634999999999998</v>
+        <v>0.29749999999999999</v>
       </c>
       <c r="AJ4">
-        <v>0.61665000000000003</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="AK4">
-        <v>0.2974</v>
+        <v>0.61219999999999997</v>
       </c>
       <c r="AL4">
-        <v>0.6976</v>
+        <v>0.28470000000000001</v>
       </c>
       <c r="AM4">
-        <v>0.26605000000000001</v>
+        <v>0.88919999999999999</v>
       </c>
       <c r="AN4">
-        <v>0.2853</v>
+        <v>0.31219999999999998</v>
       </c>
       <c r="AO4">
-        <v>0.24310000000000001</v>
+        <v>0.38385000000000002</v>
       </c>
       <c r="AP4">
-        <v>0.28594999999999998</v>
+        <v>0.29509999999999997</v>
       </c>
       <c r="AQ4">
-        <v>0.61250000000000004</v>
+        <v>0.91410000000000002</v>
       </c>
       <c r="AR4">
-        <v>0.94</v>
+        <v>0.30059999999999998</v>
       </c>
       <c r="AS4">
-        <v>0.68640000000000001</v>
+        <v>0.72184999999999999</v>
       </c>
       <c r="AT4">
-        <v>0.58560000000000001</v>
+        <v>0.90475000000000005</v>
       </c>
       <c r="AU4">
-        <v>0.27629999999999999</v>
+        <v>0.63280000000000003</v>
       </c>
       <c r="AV4">
-        <v>0.68459999999999999</v>
+        <v>0.67344999999999999</v>
       </c>
       <c r="AW4">
-        <v>0.73470000000000002</v>
+        <v>0.37814999999999999</v>
       </c>
       <c r="AX4">
-        <v>0.26684999999999998</v>
+        <v>0.69345000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.47325</v>
+        <v>0.58714999999999995</v>
       </c>
       <c r="B5">
-        <v>0.1595</v>
+        <v>0.4113</v>
       </c>
       <c r="C5">
-        <v>0.75690000000000002</v>
+        <v>0.52110000000000001</v>
       </c>
       <c r="D5">
-        <v>0.90874999999999995</v>
+        <v>0.25230000000000002</v>
       </c>
       <c r="E5">
-        <v>0.50549999999999995</v>
+        <v>0.84819999999999995</v>
       </c>
       <c r="F5">
-        <v>0.83289999999999997</v>
+        <v>0.88055000000000005</v>
       </c>
       <c r="G5">
-        <v>0.38355</v>
+        <v>0.28885</v>
       </c>
       <c r="H5">
-        <v>0.66849999999999998</v>
+        <v>0.48649999999999999</v>
       </c>
       <c r="I5">
-        <v>2.835E-2</v>
+        <v>0.82240000000000002</v>
       </c>
       <c r="J5">
-        <v>0.2681</v>
+        <v>0.20915</v>
       </c>
       <c r="K5">
-        <v>0.97230000000000005</v>
+        <v>0.7198</v>
       </c>
       <c r="L5">
-        <v>0.26929999999999998</v>
+        <v>6.0350000000000001E-2</v>
       </c>
       <c r="M5">
-        <v>0.98045000000000004</v>
+        <v>0.32350000000000001</v>
       </c>
       <c r="N5">
-        <v>0.75719999999999998</v>
+        <v>0.44145000000000001</v>
       </c>
       <c r="O5">
-        <v>0.88875000000000004</v>
+        <v>0.28915000000000002</v>
       </c>
       <c r="P5">
-        <v>0.59545000000000003</v>
+        <v>0.28134999999999999</v>
       </c>
       <c r="Q5">
-        <v>0.54979999999999996</v>
+        <v>0.95955000000000001</v>
       </c>
       <c r="R5">
-        <v>0.55389999999999995</v>
+        <v>0.18734999999999999</v>
       </c>
       <c r="S5">
-        <v>0.86470000000000002</v>
+        <v>0.27960000000000002</v>
       </c>
       <c r="T5">
-        <v>0.34289999999999998</v>
+        <v>0.62534999999999996</v>
       </c>
       <c r="U5">
-        <v>0.54249999999999998</v>
+        <v>0.70960000000000001</v>
       </c>
       <c r="V5">
-        <v>0.27234999999999998</v>
+        <v>0.25214999999999999</v>
       </c>
       <c r="W5">
-        <v>0.34955000000000003</v>
+        <v>0.33565</v>
       </c>
       <c r="X5">
-        <v>0.94920000000000004</v>
+        <v>0.31345000000000001</v>
       </c>
       <c r="Y5">
-        <v>0.37880000000000003</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="Z5">
-        <v>0.48254999999999998</v>
+        <v>5.7250000000000002E-2</v>
       </c>
       <c r="AA5">
-        <v>5.8000000000000003E-2</v>
+        <v>0.59460000000000002</v>
       </c>
       <c r="AB5">
-        <v>0.56410000000000005</v>
+        <v>0.35525000000000001</v>
       </c>
       <c r="AC5">
-        <v>0.95669999999999999</v>
+        <v>0.56105000000000005</v>
       </c>
       <c r="AD5">
-        <v>0.35115000000000002</v>
+        <v>0.52054999999999996</v>
       </c>
       <c r="AE5">
-        <v>0.42554999999999998</v>
+        <v>0.28910000000000002</v>
       </c>
       <c r="AF5">
-        <v>0.80389999999999995</v>
+        <v>0.48375000000000001</v>
       </c>
       <c r="AG5">
-        <v>0.82694999999999996</v>
+        <v>0.2797</v>
       </c>
       <c r="AH5">
-        <v>0.31075000000000003</v>
+        <v>0.27689999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.72545000000000004</v>
+        <v>0.30475000000000002</v>
       </c>
       <c r="AJ5">
-        <v>0.60155000000000003</v>
+        <v>0.63714999999999999</v>
       </c>
       <c r="AK5">
-        <v>0.6522</v>
+        <v>0.67125000000000001</v>
       </c>
       <c r="AL5">
-        <v>0.70004999999999995</v>
+        <v>0.37395</v>
       </c>
       <c r="AM5">
-        <v>0.2417</v>
+        <v>0.87324999999999997</v>
       </c>
       <c r="AN5">
-        <v>0.31850000000000001</v>
+        <v>0.27455000000000002</v>
       </c>
       <c r="AO5">
-        <v>0.37045</v>
+        <v>0.37859999999999999</v>
       </c>
       <c r="AP5">
-        <v>0.26224999999999998</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="AQ5">
-        <v>0.61565000000000003</v>
+        <v>0.4657</v>
       </c>
       <c r="AR5">
-        <v>0.85185</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="AS5">
-        <v>0.69105000000000005</v>
+        <v>0.69074999999999998</v>
       </c>
       <c r="AT5">
-        <v>0.8448</v>
+        <v>0.90905000000000002</v>
       </c>
       <c r="AU5">
-        <v>0.68959999999999999</v>
+        <v>0.24195</v>
       </c>
       <c r="AV5">
-        <v>0.7853</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="AW5">
-        <v>0.75995000000000001</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="AX5">
-        <v>0.32805000000000001</v>
+        <v>0.70135000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6.7049999999999998E-2</v>
+        <v>0.42714999999999997</v>
       </c>
       <c r="B6">
-        <v>0.23735000000000001</v>
+        <v>0.48265000000000002</v>
       </c>
       <c r="C6">
-        <v>0.72075</v>
+        <v>0.59440000000000004</v>
       </c>
       <c r="D6">
-        <v>0.81059999999999999</v>
+        <v>0.13205</v>
       </c>
       <c r="E6">
-        <v>0.26155</v>
+        <v>0.94310000000000005</v>
       </c>
       <c r="F6">
-        <v>0.17674999999999999</v>
+        <v>0.48435</v>
       </c>
       <c r="G6">
-        <v>0.49830000000000002</v>
+        <v>0.49704999999999999</v>
       </c>
       <c r="H6">
-        <v>0.65359999999999996</v>
+        <v>0.80469999999999997</v>
       </c>
       <c r="I6">
-        <v>9.5750000000000002E-2</v>
+        <v>0.22289999999999999</v>
       </c>
       <c r="J6">
-        <v>0.7974</v>
+        <v>0.51480000000000004</v>
       </c>
       <c r="K6">
-        <v>0.97794999999999999</v>
+        <v>0.9546</v>
       </c>
       <c r="L6">
-        <v>0.63949999999999996</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="M6">
-        <v>0.99004999999999999</v>
+        <v>0.26634999999999998</v>
       </c>
       <c r="N6">
-        <v>0.79330000000000001</v>
+        <v>0.1017</v>
       </c>
       <c r="O6">
-        <v>0.55305000000000004</v>
+        <v>0.41660000000000003</v>
       </c>
       <c r="P6">
-        <v>0.32945000000000002</v>
+        <v>0.22885</v>
       </c>
       <c r="Q6">
-        <v>0.48365000000000002</v>
+        <v>0.53680000000000005</v>
       </c>
       <c r="R6">
-        <v>0.48259999999999997</v>
+        <v>0.53485000000000005</v>
       </c>
       <c r="S6">
-        <v>0.92700000000000005</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="T6">
-        <v>0.36585000000000001</v>
+        <v>0.24890000000000001</v>
       </c>
       <c r="U6">
-        <v>0.5907</v>
+        <v>0.67659999999999998</v>
       </c>
       <c r="V6">
-        <v>0.45669999999999999</v>
+        <v>0.58840000000000003</v>
       </c>
       <c r="W6">
-        <v>0.42599999999999999</v>
+        <v>0.26640000000000003</v>
       </c>
       <c r="X6">
-        <v>0.94850000000000001</v>
+        <v>0.22939999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.33329999999999999</v>
+        <v>0.48020000000000002</v>
       </c>
       <c r="Z6">
-        <v>0.50914999999999999</v>
+        <v>0.2215</v>
       </c>
       <c r="AA6">
-        <v>0.20180000000000001</v>
+        <v>0.80284999999999995</v>
       </c>
       <c r="AB6">
-        <v>0.69489999999999996</v>
+        <v>0.31530000000000002</v>
       </c>
       <c r="AC6">
-        <v>0.51995000000000002</v>
+        <v>0.32335000000000003</v>
       </c>
       <c r="AD6">
-        <v>0.51095000000000002</v>
+        <v>0.53315000000000001</v>
       </c>
       <c r="AE6">
-        <v>0.37845000000000001</v>
+        <v>0.4304</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.48859999999999998</v>
       </c>
       <c r="AG6">
-        <v>8.7599999999999997E-2</v>
+        <v>0.51319999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.30235000000000001</v>
+        <v>0.48609999999999998</v>
       </c>
       <c r="AI6">
-        <v>0.37109999999999999</v>
+        <v>0.39360000000000001</v>
       </c>
       <c r="AJ6">
-        <v>0.56935000000000002</v>
+        <v>0.91269999999999996</v>
       </c>
       <c r="AK6">
-        <v>0.6835</v>
+        <v>0.43304999999999999</v>
       </c>
       <c r="AL6">
-        <v>0.69984999999999997</v>
+        <v>0.2392</v>
       </c>
       <c r="AM6">
-        <v>0.42380000000000001</v>
+        <v>0.26324999999999998</v>
       </c>
       <c r="AN6">
-        <v>0.36699999999999999</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="AO6">
-        <v>0.14724999999999999</v>
+        <v>0.68420000000000003</v>
       </c>
       <c r="AP6">
-        <v>0.31164999999999998</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="AQ6">
-        <v>0.68064999999999998</v>
+        <v>6.5850000000000006E-2</v>
       </c>
       <c r="AR6">
-        <v>8.1799999999999998E-2</v>
+        <v>8.1949999999999995E-2</v>
       </c>
       <c r="AS6">
-        <v>0.75565000000000004</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="AT6">
-        <v>0.23669999999999999</v>
+        <v>0.96435000000000004</v>
       </c>
       <c r="AU6">
-        <v>0.41039999999999999</v>
+        <v>0.18529999999999999</v>
       </c>
       <c r="AV6">
-        <v>0.22775000000000001</v>
+        <v>0.43390000000000001</v>
       </c>
       <c r="AW6">
-        <v>0.59750000000000003</v>
+        <v>0.77170000000000005</v>
       </c>
       <c r="AX6">
-        <v>0.21</v>
+        <v>0.50029999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.18709999999999999</v>
+        <v>0.46544999999999997</v>
       </c>
       <c r="B7">
-        <v>0.27160000000000001</v>
+        <v>0.7954</v>
       </c>
       <c r="C7">
-        <v>0.26519999999999999</v>
+        <v>0.98465000000000003</v>
       </c>
       <c r="D7">
-        <v>0.1925</v>
+        <v>0.23385</v>
       </c>
       <c r="E7">
-        <v>2.9100000000000001E-2</v>
+        <v>0.98004999999999998</v>
       </c>
       <c r="F7">
-        <v>0.3488</v>
+        <v>0.25795000000000001</v>
       </c>
       <c r="G7">
-        <v>0.70760000000000001</v>
+        <v>0.31130000000000002</v>
       </c>
       <c r="H7">
-        <v>0.35794999999999999</v>
+        <v>0.1293</v>
       </c>
       <c r="I7">
-        <v>6.6000000000000003E-2</v>
+        <v>0.30120000000000002</v>
       </c>
       <c r="J7">
-        <v>0.86795</v>
+        <v>0.76719999999999999</v>
       </c>
       <c r="K7">
-        <v>0.69830000000000003</v>
+        <v>0.68559999999999999</v>
       </c>
       <c r="L7">
-        <v>0.76854999999999996</v>
+        <v>0.24545</v>
       </c>
       <c r="M7">
-        <v>0.99719999999999998</v>
+        <v>0.79664999999999997</v>
       </c>
       <c r="N7">
-        <v>0.62314999999999998</v>
+        <v>0.48139999999999999</v>
       </c>
       <c r="O7">
-        <v>0.84250000000000003</v>
+        <v>0.56835000000000002</v>
       </c>
       <c r="P7">
-        <v>0.50705</v>
+        <v>0.40044999999999997</v>
       </c>
       <c r="Q7">
-        <v>0.45829999999999999</v>
+        <v>0.2296</v>
       </c>
       <c r="R7">
-        <v>6.615E-2</v>
+        <v>0.33315</v>
       </c>
       <c r="S7">
-        <v>0.77410000000000001</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="T7">
-        <v>0.46079999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="U7">
-        <v>0.64100000000000001</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="V7">
-        <v>0.81855</v>
+        <v>0.51060000000000005</v>
       </c>
       <c r="W7">
-        <v>0.35070000000000001</v>
+        <v>0.33955000000000002</v>
       </c>
       <c r="X7">
-        <v>0.92295000000000005</v>
+        <v>0.57920000000000005</v>
       </c>
       <c r="Y7">
-        <v>0.14050000000000001</v>
+        <v>0.38855000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.32665</v>
+        <v>0.48</v>
       </c>
       <c r="AA7">
-        <v>0.20774999999999999</v>
+        <v>0.4022</v>
       </c>
       <c r="AB7">
-        <v>0.52510000000000001</v>
+        <v>0.48004999999999998</v>
       </c>
       <c r="AC7">
-        <v>0.3735</v>
+        <v>0.16295000000000001</v>
       </c>
       <c r="AD7">
-        <v>0.51665000000000005</v>
+        <v>0.48275000000000001</v>
       </c>
       <c r="AE7">
-        <v>0.48530000000000001</v>
+        <v>0.59514999999999996</v>
       </c>
       <c r="AF7">
-        <v>0.77539999999999998</v>
+        <v>0.68525000000000003</v>
       </c>
       <c r="AG7">
-        <v>6.4000000000000001E-2</v>
+        <v>0.69089999999999996</v>
       </c>
       <c r="AH7">
-        <v>0.31635000000000002</v>
+        <v>0.67359999999999998</v>
       </c>
       <c r="AI7">
-        <v>0.45005000000000001</v>
+        <v>0.53269999999999995</v>
       </c>
       <c r="AJ7">
-        <v>0.13614999999999999</v>
+        <v>0.34434999999999999</v>
       </c>
       <c r="AK7">
-        <v>0.51114999999999999</v>
+        <v>0.31879999999999997</v>
       </c>
       <c r="AL7">
-        <v>0.70325000000000004</v>
+        <v>0.43604999999999999</v>
       </c>
       <c r="AM7">
-        <v>0.59330000000000005</v>
+        <v>0.35004999999999997</v>
       </c>
       <c r="AN7">
-        <v>0.45665</v>
+        <v>0.27410000000000001</v>
       </c>
       <c r="AO7">
-        <v>0.20935000000000001</v>
+        <v>0.39550000000000002</v>
       </c>
       <c r="AP7">
-        <v>0.44455</v>
+        <v>0.64180000000000004</v>
       </c>
       <c r="AQ7">
-        <v>0.74229999999999996</v>
+        <v>8.5449999999999998E-2</v>
       </c>
       <c r="AR7">
-        <v>0.51234999999999997</v>
+        <v>5.1049999999999998E-2</v>
       </c>
       <c r="AS7">
-        <v>0.57199999999999995</v>
+        <v>0.47825000000000001</v>
       </c>
       <c r="AT7">
-        <v>0.51744999999999997</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="AU7">
-        <v>0.3357</v>
+        <v>0.34394999999999998</v>
       </c>
       <c r="AV7">
-        <v>0.63290000000000002</v>
+        <v>0.82630000000000003</v>
       </c>
       <c r="AW7">
-        <v>0.1855</v>
+        <v>0.63924999999999998</v>
       </c>
       <c r="AX7">
-        <v>0.1769</v>
+        <v>0.29389999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.30875000000000002</v>
+        <v>0.55430000000000001</v>
       </c>
       <c r="B8">
-        <v>0.40515000000000001</v>
+        <v>0.42225000000000001</v>
       </c>
       <c r="C8">
-        <v>0.39429999999999998</v>
+        <v>0.502</v>
       </c>
       <c r="D8">
-        <v>0.44790000000000002</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>0.1535</v>
+        <v>0.6956</v>
       </c>
       <c r="F8">
-        <v>0.16689999999999999</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="G8">
-        <v>0.94925000000000004</v>
+        <v>0.30780000000000002</v>
       </c>
       <c r="H8">
-        <v>0.311</v>
+        <v>0.32755000000000001</v>
       </c>
       <c r="I8">
-        <v>0.31395000000000001</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="J8">
-        <v>0.56230000000000002</v>
+        <v>0.82464999999999999</v>
       </c>
       <c r="K8">
-        <v>0.49064999999999998</v>
+        <v>0.74519999999999997</v>
       </c>
       <c r="L8">
-        <v>0.88649999999999995</v>
+        <v>0.41930000000000001</v>
       </c>
       <c r="M8">
-        <v>0.43269999999999997</v>
+        <v>0.49459999999999998</v>
       </c>
       <c r="N8">
-        <v>0.51200000000000001</v>
+        <v>0.53779999999999994</v>
       </c>
       <c r="O8">
-        <v>0.18260000000000001</v>
+        <v>0.78559999999999997</v>
       </c>
       <c r="P8">
-        <v>0.51144999999999996</v>
+        <v>0.62639999999999996</v>
       </c>
       <c r="Q8">
-        <v>0.86034999999999995</v>
+        <v>0.26019999999999999</v>
       </c>
       <c r="R8">
-        <v>0.14244999999999999</v>
+        <v>0.34705000000000003</v>
       </c>
       <c r="S8">
-        <v>0.70569999999999999</v>
+        <v>0.1545</v>
       </c>
       <c r="T8">
-        <v>0.2631</v>
+        <v>0.46910000000000002</v>
       </c>
       <c r="U8">
-        <v>0.33989999999999998</v>
+        <v>6.7799999999999999E-2</v>
       </c>
       <c r="V8">
-        <v>0.77085000000000004</v>
+        <v>0.40294999999999997</v>
       </c>
       <c r="W8">
-        <v>0.25355</v>
+        <v>0.71309999999999996</v>
       </c>
       <c r="X8">
-        <v>0.38240000000000002</v>
+        <v>0.35785</v>
       </c>
       <c r="Y8">
-        <v>0.17215</v>
+        <v>0.48230000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.46665000000000001</v>
+        <v>0.43445</v>
       </c>
       <c r="AA8">
-        <v>0.38535000000000003</v>
+        <v>0.3836</v>
       </c>
       <c r="AB8">
-        <v>0.51819999999999999</v>
+        <v>0.23865</v>
       </c>
       <c r="AC8">
-        <v>4.0599999999999997E-2</v>
+        <v>0.18940000000000001</v>
       </c>
       <c r="AD8">
-        <v>0.47689999999999999</v>
+        <v>0.3891</v>
       </c>
       <c r="AE8">
-        <v>0.30635000000000001</v>
+        <v>0.64595000000000002</v>
       </c>
       <c r="AF8">
-        <v>0.35780000000000001</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="AG8">
-        <v>0.1898</v>
+        <v>0.68779999999999997</v>
       </c>
       <c r="AH8">
-        <v>0.49485000000000001</v>
+        <v>0.751</v>
       </c>
       <c r="AI8">
-        <v>0.54510000000000003</v>
+        <v>0.38605</v>
       </c>
       <c r="AJ8">
-        <v>0.46589999999999998</v>
+        <v>0.57420000000000004</v>
       </c>
       <c r="AK8">
-        <v>0.79049999999999998</v>
+        <v>0.50114999999999998</v>
       </c>
       <c r="AL8">
-        <v>0.622</v>
+        <v>0.3604</v>
       </c>
       <c r="AM8">
-        <v>0.59260000000000002</v>
+        <v>0.47954999999999998</v>
       </c>
       <c r="AN8">
-        <v>0.49245</v>
+        <v>0.67830000000000001</v>
       </c>
       <c r="AO8">
-        <v>9.4049999999999995E-2</v>
+        <v>0.5111</v>
       </c>
       <c r="AP8">
-        <v>0.50295000000000001</v>
+        <v>0.80064999999999997</v>
       </c>
       <c r="AQ8">
-        <v>0.90700000000000003</v>
+        <v>0.34144999999999998</v>
       </c>
       <c r="AR8">
-        <v>0.21784999999999999</v>
+        <v>0.19234999999999999</v>
       </c>
       <c r="AS8">
-        <v>0.2233</v>
+        <v>0.47660000000000002</v>
       </c>
       <c r="AT8">
-        <v>0.29880000000000001</v>
+        <v>0.24809999999999999</v>
       </c>
       <c r="AU8">
-        <v>0.37664999999999998</v>
+        <v>0.55940000000000001</v>
       </c>
       <c r="AV8">
-        <v>0.4698</v>
+        <v>0.83250000000000002</v>
       </c>
       <c r="AW8">
-        <v>0.1661</v>
+        <v>0.75765000000000005</v>
       </c>
       <c r="AX8">
-        <v>0.22955</v>
+        <v>0.63754999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.46179999999999999</v>
+        <v>0.73839999999999995</v>
       </c>
       <c r="B9">
-        <v>0.23105000000000001</v>
+        <v>0.75775000000000003</v>
       </c>
       <c r="C9">
-        <v>0.5383</v>
+        <v>0.5252</v>
       </c>
       <c r="D9">
-        <v>0.6048</v>
+        <v>8.14E-2</v>
       </c>
       <c r="E9">
-        <v>0.52829999999999999</v>
+        <v>0.51529999999999998</v>
       </c>
       <c r="F9">
-        <v>0.21775</v>
+        <v>0.25305</v>
       </c>
       <c r="G9">
-        <v>0.85089999999999999</v>
+        <v>0.35944999999999999</v>
       </c>
       <c r="H9">
-        <v>0.41039999999999999</v>
+        <v>0.52549999999999997</v>
       </c>
       <c r="I9">
-        <v>0.63</v>
+        <v>0.66649999999999998</v>
       </c>
       <c r="J9">
-        <v>0.40205000000000002</v>
+        <v>0.62685000000000002</v>
       </c>
       <c r="K9">
-        <v>0.39350000000000002</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="L9">
-        <v>0.73504999999999998</v>
+        <v>0.54974999999999996</v>
       </c>
       <c r="M9">
-        <v>0.27339999999999998</v>
+        <v>0.17044999999999999</v>
       </c>
       <c r="N9">
-        <v>0.3518</v>
+        <v>0.7198</v>
       </c>
       <c r="O9">
-        <v>0.27565000000000001</v>
+        <v>0.65910000000000002</v>
       </c>
       <c r="P9">
-        <v>0.47660000000000002</v>
+        <v>0.65280000000000005</v>
       </c>
       <c r="Q9">
-        <v>0.68789999999999996</v>
+        <v>0.16985</v>
       </c>
       <c r="R9">
-        <v>8.4750000000000006E-2</v>
+        <v>0.30649999999999999</v>
       </c>
       <c r="S9">
-        <v>0.67384999999999995</v>
+        <v>0.1474</v>
       </c>
       <c r="T9">
-        <v>0.1157</v>
+        <v>0.23219999999999999</v>
       </c>
       <c r="U9">
-        <v>0.2792</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="V9">
-        <v>0.47215000000000001</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="W9">
-        <v>0.49690000000000001</v>
+        <v>0.72635000000000005</v>
       </c>
       <c r="X9">
-        <v>0.35560000000000003</v>
+        <v>0.23019999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.13239999999999999</v>
+        <v>0.42120000000000002</v>
       </c>
       <c r="Z9">
-        <v>0.44350000000000001</v>
+        <v>0.24635000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.41360000000000002</v>
+        <v>0.59135000000000004</v>
       </c>
       <c r="AB9">
-        <v>0.57845000000000002</v>
+        <v>0.18004999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.1598</v>
+        <v>0.12709999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.42909999999999998</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.57394999999999996</v>
+        <v>0.53615000000000002</v>
       </c>
       <c r="AF9">
-        <v>0.4703</v>
+        <v>0.55689999999999995</v>
       </c>
       <c r="AG9">
-        <v>0.18429999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="AH9">
-        <v>0.8599</v>
+        <v>0.50239999999999996</v>
       </c>
       <c r="AI9">
-        <v>0.46555000000000002</v>
+        <v>0.30690000000000001</v>
       </c>
       <c r="AJ9">
-        <v>0.46010000000000001</v>
+        <v>0.46139999999999998</v>
       </c>
       <c r="AK9">
-        <v>0.2369</v>
+        <v>0.87080000000000002</v>
       </c>
       <c r="AL9">
-        <v>0.48060000000000003</v>
+        <v>0.53039999999999998</v>
       </c>
       <c r="AM9">
-        <v>0.53995000000000004</v>
+        <v>0.24115</v>
       </c>
       <c r="AN9">
-        <v>0.49335000000000001</v>
+        <v>0.53669999999999995</v>
       </c>
       <c r="AO9">
-        <v>0.17219999999999999</v>
+        <v>0.68225000000000002</v>
       </c>
       <c r="AP9">
-        <v>0.50119999999999998</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="AQ9">
-        <v>0.98594999999999999</v>
+        <v>0.44409999999999999</v>
       </c>
       <c r="AR9">
-        <v>0.17</v>
+        <v>0.43020000000000003</v>
       </c>
       <c r="AS9">
-        <v>0.09</v>
+        <v>0.45650000000000002</v>
       </c>
       <c r="AT9">
-        <v>0.1336</v>
+        <v>0.12720000000000001</v>
       </c>
       <c r="AU9">
-        <v>0.47110000000000002</v>
+        <v>0.75819999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.2848</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="AW9">
-        <v>0.26805000000000001</v>
+        <v>0.64075000000000004</v>
       </c>
       <c r="AX9">
-        <v>7.4550000000000005E-2</v>
+        <v>0.79374999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.56140000000000001</v>
+        <v>0.82609999999999995</v>
       </c>
       <c r="B10">
-        <v>0.40570000000000001</v>
+        <v>0.73094999999999999</v>
       </c>
       <c r="C10">
-        <v>0.51100000000000001</v>
+        <v>0.43219999999999997</v>
       </c>
       <c r="D10">
-        <v>0.36649999999999999</v>
+        <v>0.2475</v>
       </c>
       <c r="E10">
-        <v>0.60680000000000001</v>
+        <v>0.45029999999999998</v>
       </c>
       <c r="F10">
-        <v>2.7099999999999999E-2</v>
+        <v>0.17380000000000001</v>
       </c>
       <c r="G10">
-        <v>0.95050000000000001</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="H10">
-        <v>0.42459999999999998</v>
+        <v>0.63770000000000004</v>
       </c>
       <c r="I10">
-        <v>0.27675</v>
+        <v>0.56289999999999996</v>
       </c>
       <c r="J10">
-        <v>0.25109999999999999</v>
+        <v>0.55154999999999998</v>
       </c>
       <c r="K10">
-        <v>0.33844999999999997</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="L10">
-        <v>0.80564999999999998</v>
+        <v>0.4199</v>
       </c>
       <c r="M10">
-        <v>0.27700000000000002</v>
+        <v>0.2203</v>
       </c>
       <c r="N10">
-        <v>0.30520000000000003</v>
+        <v>0.6976</v>
       </c>
       <c r="O10">
-        <v>0.1176</v>
+        <v>0.55649999999999999</v>
       </c>
       <c r="P10">
-        <v>0.57030000000000003</v>
+        <v>0.85460000000000003</v>
       </c>
       <c r="Q10">
-        <v>0.62229999999999996</v>
+        <v>0.1651</v>
       </c>
       <c r="R10">
-        <v>0.28599999999999998</v>
+        <v>0.29920000000000002</v>
       </c>
       <c r="S10">
-        <v>0.7046</v>
+        <v>0.12634999999999999</v>
       </c>
       <c r="T10">
-        <v>0.14990000000000001</v>
+        <v>0.27610000000000001</v>
       </c>
       <c r="U10">
-        <v>0.29010000000000002</v>
+        <v>7.3899999999999993E-2</v>
       </c>
       <c r="V10">
-        <v>0.33639999999999998</v>
+        <v>0.47149999999999997</v>
       </c>
       <c r="W10">
-        <v>0.50970000000000004</v>
+        <v>0.47849999999999998</v>
       </c>
       <c r="X10">
-        <v>0.17610000000000001</v>
+        <v>0.37109999999999999</v>
       </c>
       <c r="Y10">
-        <v>0.24840000000000001</v>
+        <v>0.65839999999999999</v>
       </c>
       <c r="Z10">
-        <v>0.56379999999999997</v>
+        <v>0.3458</v>
       </c>
       <c r="AA10">
-        <v>0.35139999999999999</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="AB10">
-        <v>0.62070000000000003</v>
+        <v>0.25264999999999999</v>
       </c>
       <c r="AC10">
-        <v>8.3650000000000002E-2</v>
+        <v>0.41049999999999998</v>
       </c>
       <c r="AD10">
-        <v>0.35194999999999999</v>
+        <v>0.48270000000000002</v>
       </c>
       <c r="AE10">
-        <v>0.6159</v>
+        <v>0.54390000000000005</v>
       </c>
       <c r="AF10">
-        <v>0.2056</v>
+        <v>0.67484999999999995</v>
       </c>
       <c r="AG10">
-        <v>0.13400000000000001</v>
+        <v>0.6744</v>
       </c>
       <c r="AH10">
-        <v>0.86314999999999997</v>
+        <v>0.56230000000000002</v>
       </c>
       <c r="AI10">
-        <v>0.38345000000000001</v>
+        <v>0.36909999999999998</v>
       </c>
       <c r="AJ10">
-        <v>0.15870000000000001</v>
+        <v>0.56789999999999996</v>
       </c>
       <c r="AK10">
-        <v>0.32490000000000002</v>
+        <v>0.94320000000000004</v>
       </c>
       <c r="AL10">
-        <v>0.45140000000000002</v>
+        <v>0.65639999999999998</v>
       </c>
       <c r="AM10">
-        <v>0.36670000000000003</v>
+        <v>0.1598</v>
       </c>
       <c r="AN10">
-        <v>0.51060000000000005</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="AO10">
-        <v>0.32490000000000002</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="AP10">
-        <v>0.52100000000000002</v>
+        <v>0.3896</v>
       </c>
       <c r="AQ10">
-        <v>0.79300000000000004</v>
+        <v>0.62419999999999998</v>
       </c>
       <c r="AR10">
-        <v>0.37485000000000002</v>
+        <v>0.51205000000000001</v>
       </c>
       <c r="AS10">
-        <v>0.2112</v>
+        <v>0.68769999999999998</v>
       </c>
       <c r="AT10">
-        <v>0.1172</v>
+        <v>0.35160000000000002</v>
       </c>
       <c r="AU10">
-        <v>0.47970000000000002</v>
+        <v>0.76880000000000004</v>
       </c>
       <c r="AV10">
-        <v>0.50049999999999994</v>
+        <v>0.49070000000000003</v>
       </c>
       <c r="AW10">
-        <v>0.4415</v>
+        <v>0.67915000000000003</v>
       </c>
       <c r="AX10">
-        <v>0.29289999999999999</v>
+        <v>0.89329999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.74604999999999999</v>
+        <v>0.31895000000000001</v>
       </c>
       <c r="B11">
-        <v>0.69769999999999999</v>
+        <v>0.37180000000000002</v>
       </c>
       <c r="C11">
-        <v>0.84650000000000003</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="D11">
-        <v>0.51749999999999996</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="E11">
-        <v>0.48209999999999997</v>
+        <v>0.16420000000000001</v>
       </c>
       <c r="F11">
-        <v>0.27239999999999998</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="G11">
-        <v>0.97230000000000005</v>
+        <v>0.44429999999999997</v>
       </c>
       <c r="H11">
-        <v>0.66610000000000003</v>
+        <v>0.49769999999999998</v>
       </c>
       <c r="I11">
-        <v>0.38829999999999998</v>
+        <v>0.43880000000000002</v>
       </c>
       <c r="J11">
-        <v>0.29620000000000002</v>
+        <v>0.44979999999999998</v>
       </c>
       <c r="K11">
-        <v>0.41510000000000002</v>
+        <v>0.47639999999999999</v>
       </c>
       <c r="L11">
-        <v>0.59360000000000002</v>
+        <v>0.75639999999999996</v>
       </c>
       <c r="M11">
-        <v>0.27879999999999999</v>
+        <v>0.19470000000000001</v>
       </c>
       <c r="N11">
-        <v>0.35639999999999999</v>
+        <v>0.61909999999999998</v>
       </c>
       <c r="O11">
-        <v>0.1961</v>
+        <v>0.58069999999999999</v>
       </c>
       <c r="P11">
-        <v>0.55820000000000003</v>
+        <v>0.70430000000000004</v>
       </c>
       <c r="Q11">
-        <v>0.56489999999999996</v>
+        <v>0.1182</v>
       </c>
       <c r="R11">
-        <v>0.29809999999999998</v>
+        <v>0.25969999999999999</v>
       </c>
       <c r="S11">
-        <v>0.66759999999999997</v>
+        <v>0.27160000000000001</v>
       </c>
       <c r="T11">
-        <v>0.30730000000000002</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="U11">
-        <v>0.1346</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="V11">
-        <v>0.53349999999999997</v>
+        <v>0.41089999999999999</v>
       </c>
       <c r="W11">
-        <v>0.43319999999999997</v>
+        <v>0.50749999999999995</v>
       </c>
       <c r="X11">
-        <v>0.29089999999999999</v>
+        <v>0.41385</v>
       </c>
       <c r="Y11">
-        <v>0.34320000000000001</v>
+        <v>0.75080000000000002</v>
       </c>
       <c r="Z11">
-        <v>0.3962</v>
+        <v>0.23230000000000001</v>
       </c>
       <c r="AA11">
-        <v>0.14829999999999999</v>
+        <v>0.79420000000000002</v>
       </c>
       <c r="AB11">
-        <v>0.72150000000000003</v>
+        <v>0.37009999999999998</v>
       </c>
       <c r="AC11">
-        <v>0.45729999999999998</v>
+        <v>0.3332</v>
       </c>
       <c r="AD11">
-        <v>0.51719999999999999</v>
+        <v>0.2223</v>
       </c>
       <c r="AE11">
-        <v>0.5323</v>
+        <v>0.49370000000000003</v>
       </c>
       <c r="AF11">
-        <v>0.28349999999999997</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.1149</v>
+        <v>0.53410000000000002</v>
       </c>
       <c r="AH11">
-        <v>0.88590000000000002</v>
+        <v>0.49130000000000001</v>
       </c>
       <c r="AI11">
-        <v>0.47410000000000002</v>
+        <v>0.32169999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.26640000000000003</v>
+        <v>0.66830000000000001</v>
       </c>
       <c r="AK11">
-        <v>0.23119999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0.2233</v>
+        <v>0.38669999999999999</v>
       </c>
       <c r="AM11">
-        <v>0.45710000000000001</v>
+        <v>8.48E-2</v>
       </c>
       <c r="AN11">
-        <v>0.58150000000000002</v>
+        <v>0.29330000000000001</v>
       </c>
       <c r="AO11">
-        <v>0.33174999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="AP11">
-        <v>0.56779999999999997</v>
+        <v>0.24859999999999999</v>
       </c>
       <c r="AQ11">
-        <v>0.80159999999999998</v>
+        <v>0.2235</v>
       </c>
       <c r="AR11">
-        <v>0.1221</v>
+        <v>0.59904999999999997</v>
       </c>
       <c r="AS11">
-        <v>0.34410000000000002</v>
+        <v>0.38240000000000002</v>
       </c>
       <c r="AT11">
-        <v>0.21970000000000001</v>
+        <v>0.26860000000000001</v>
       </c>
       <c r="AU11">
-        <v>0.46970000000000001</v>
+        <v>0.76129999999999998</v>
       </c>
       <c r="AV11">
-        <v>0.40360000000000001</v>
+        <v>0.30869999999999997</v>
       </c>
       <c r="AW11">
-        <v>0.52790000000000004</v>
+        <v>0.64859999999999995</v>
       </c>
       <c r="AX11">
-        <v>0.47410000000000002</v>
+        <v>0.93679999999999997</v>
       </c>
     </row>
   </sheetData>
